--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Epo-Crlf3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Epo-Crlf3.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.07358199999999999</v>
+        <v>0.1831553333333333</v>
       </c>
       <c r="H2">
-        <v>0.220746</v>
+        <v>0.549466</v>
       </c>
       <c r="I2">
-        <v>0.1953341934387759</v>
+        <v>0.3807808465430998</v>
       </c>
       <c r="J2">
-        <v>0.1953341934387759</v>
+        <v>0.3807808465430998</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.984935333333333</v>
+        <v>5.560959666666666</v>
       </c>
       <c r="N2">
-        <v>20.954806</v>
+        <v>16.682879</v>
       </c>
       <c r="O2">
-        <v>0.1906526598184713</v>
+        <v>0.1423184612405788</v>
       </c>
       <c r="P2">
-        <v>0.1906526598184713</v>
+        <v>0.1423184612405788</v>
       </c>
       <c r="Q2">
-        <v>0.5139655116973333</v>
+        <v>1.018519421401556</v>
       </c>
       <c r="R2">
-        <v>4.625689605276</v>
+        <v>9.166674792614</v>
       </c>
       <c r="S2">
-        <v>0.03724098353259842</v>
+        <v>0.05419214414989895</v>
       </c>
       <c r="T2">
-        <v>0.03724098353259842</v>
+        <v>0.05419214414989892</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.07358199999999999</v>
+        <v>0.1831553333333333</v>
       </c>
       <c r="H3">
-        <v>0.220746</v>
+        <v>0.549466</v>
       </c>
       <c r="I3">
-        <v>0.1953341934387759</v>
+        <v>0.3807808465430998</v>
       </c>
       <c r="J3">
-        <v>0.1953341934387759</v>
+        <v>0.3807808465430998</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.635186999999999</v>
+        <v>5.635187000000001</v>
       </c>
       <c r="N3">
         <v>16.905561</v>
       </c>
       <c r="O3">
-        <v>0.1538115013030145</v>
+        <v>0.1442181189427041</v>
       </c>
       <c r="P3">
-        <v>0.1538115013030145</v>
+        <v>0.1442181189427041</v>
       </c>
       <c r="Q3">
-        <v>0.4146483298339999</v>
+        <v>1.032114553380667</v>
       </c>
       <c r="R3">
-        <v>3.731834968505999</v>
+        <v>9.289030980426002</v>
       </c>
       <c r="S3">
-        <v>0.03004464554863156</v>
+        <v>0.05491549741785635</v>
       </c>
       <c r="T3">
-        <v>0.03004464554863156</v>
+        <v>0.05491549741785633</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.07358199999999999</v>
+        <v>0.1831553333333333</v>
       </c>
       <c r="H4">
-        <v>0.220746</v>
+        <v>0.549466</v>
       </c>
       <c r="I4">
-        <v>0.1953341934387759</v>
+        <v>0.3807808465430998</v>
       </c>
       <c r="J4">
-        <v>0.1953341934387759</v>
+        <v>0.3807808465430998</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.059787666666668</v>
+        <v>7.323012666666667</v>
       </c>
       <c r="N4">
-        <v>18.179363</v>
+        <v>21.969038</v>
       </c>
       <c r="O4">
-        <v>0.1654009065870381</v>
+        <v>0.1874136762063552</v>
       </c>
       <c r="P4">
-        <v>0.1654009065870381</v>
+        <v>0.1874136762063552</v>
       </c>
       <c r="Q4">
-        <v>0.4458912960886667</v>
+        <v>1.341248825967556</v>
       </c>
       <c r="R4">
-        <v>4.013021664798001</v>
+        <v>12.071239433708</v>
       </c>
       <c r="S4">
-        <v>0.0323084526822214</v>
+        <v>0.07136353827961035</v>
       </c>
       <c r="T4">
-        <v>0.03230845268222139</v>
+        <v>0.07136353827961034</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.07358199999999999</v>
+        <v>0.1831553333333333</v>
       </c>
       <c r="H5">
-        <v>0.220746</v>
+        <v>0.549466</v>
       </c>
       <c r="I5">
-        <v>0.1953341934387759</v>
+        <v>0.3807808465430998</v>
       </c>
       <c r="J5">
-        <v>0.1953341934387759</v>
+        <v>0.3807808465430998</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.95705766666667</v>
+        <v>20.55489766666667</v>
       </c>
       <c r="N5">
-        <v>53.871173</v>
+        <v>61.664693</v>
       </c>
       <c r="O5">
-        <v>0.4901349322914762</v>
+        <v>0.5260497436103619</v>
       </c>
       <c r="P5">
-        <v>0.4901349322914761</v>
+        <v>0.5260497436103618</v>
       </c>
       <c r="Q5">
-        <v>1.321316217228667</v>
+        <v>3.764739133770889</v>
       </c>
       <c r="R5">
-        <v>11.891845955058</v>
+        <v>33.882652203938</v>
       </c>
       <c r="S5">
-        <v>0.09574011167532454</v>
+        <v>0.2003096666957342</v>
       </c>
       <c r="T5">
-        <v>0.09574011167532451</v>
+        <v>0.2003096666957342</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>0.5127660000000001</v>
       </c>
       <c r="I6">
-        <v>0.4537374767054776</v>
+        <v>0.3553476858595785</v>
       </c>
       <c r="J6">
-        <v>0.4537374767054776</v>
+        <v>0.3553476858595784</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.984935333333333</v>
+        <v>5.560959666666666</v>
       </c>
       <c r="N6">
-        <v>20.954806</v>
+        <v>16.682879</v>
       </c>
       <c r="O6">
-        <v>0.1906526598184713</v>
+        <v>0.1423184612405788</v>
       </c>
       <c r="P6">
-        <v>0.1906526598184713</v>
+        <v>0.1423184612405788</v>
       </c>
       <c r="Q6">
-        <v>1.193879117044</v>
+        <v>0.9504903481460001</v>
       </c>
       <c r="R6">
-        <v>10.744912053396</v>
+        <v>8.554413133314</v>
       </c>
       <c r="S6">
-        <v>0.08650625679322099</v>
+        <v>0.05057253585693579</v>
       </c>
       <c r="T6">
-        <v>0.08650625679322099</v>
+        <v>0.05057253585693578</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>0.5127660000000001</v>
       </c>
       <c r="I7">
-        <v>0.4537374767054776</v>
+        <v>0.3553476858595785</v>
       </c>
       <c r="J7">
-        <v>0.4537374767054776</v>
+        <v>0.3553476858595784</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.635186999999999</v>
+        <v>5.635187000000001</v>
       </c>
       <c r="N7">
         <v>16.905561</v>
       </c>
       <c r="O7">
-        <v>0.1538115013030145</v>
+        <v>0.1442181189427041</v>
       </c>
       <c r="P7">
-        <v>0.1538115013030145</v>
+        <v>0.1442181189427041</v>
       </c>
       <c r="Q7">
-        <v>0.963177432414</v>
+        <v>0.9631774324140003</v>
       </c>
       <c r="R7">
-        <v>8.668596891726001</v>
+        <v>8.668596891726002</v>
       </c>
       <c r="S7">
-        <v>0.06979004248951108</v>
+        <v>0.05124757482531136</v>
       </c>
       <c r="T7">
-        <v>0.06979004248951108</v>
+        <v>0.05124757482531134</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>0.5127660000000001</v>
       </c>
       <c r="I8">
-        <v>0.4537374767054776</v>
+        <v>0.3553476858595785</v>
       </c>
       <c r="J8">
-        <v>0.4537374767054776</v>
+        <v>0.3553476858595784</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.059787666666668</v>
+        <v>7.323012666666667</v>
       </c>
       <c r="N8">
-        <v>18.179363</v>
+        <v>21.969038</v>
       </c>
       <c r="O8">
-        <v>0.1654009065870381</v>
+        <v>0.1874136762063552</v>
       </c>
       <c r="P8">
-        <v>0.1654009065870381</v>
+        <v>0.1874136762063552</v>
       </c>
       <c r="Q8">
-        <v>1.035751027562</v>
+        <v>1.251663971012</v>
       </c>
       <c r="R8">
-        <v>9.321759248058003</v>
+        <v>11.264975739108</v>
       </c>
       <c r="S8">
-        <v>0.07504858999960108</v>
+        <v>0.06659701613836468</v>
       </c>
       <c r="T8">
-        <v>0.07504858999960107</v>
+        <v>0.06659701613836466</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>0.5127660000000001</v>
       </c>
       <c r="I9">
-        <v>0.4537374767054776</v>
+        <v>0.3553476858595785</v>
       </c>
       <c r="J9">
-        <v>0.4537374767054776</v>
+        <v>0.3553476858595784</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>17.95705766666667</v>
+        <v>20.55489766666667</v>
       </c>
       <c r="N9">
-        <v>53.871173</v>
+        <v>61.664693</v>
       </c>
       <c r="O9">
-        <v>0.4901349322914762</v>
+        <v>0.5260497436103619</v>
       </c>
       <c r="P9">
-        <v>0.4901349322914761</v>
+        <v>0.5260497436103618</v>
       </c>
       <c r="Q9">
-        <v>3.069256210502</v>
+        <v>3.513284218982</v>
       </c>
       <c r="R9">
-        <v>27.623305894518</v>
+        <v>31.619557970838</v>
       </c>
       <c r="S9">
-        <v>0.2223925874231445</v>
+        <v>0.1869305590389667</v>
       </c>
       <c r="T9">
-        <v>0.2223925874231445</v>
+        <v>0.1869305590389666</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.02573633333333333</v>
+        <v>0.1002363333333333</v>
       </c>
       <c r="H10">
-        <v>0.077209</v>
+        <v>0.300709</v>
       </c>
       <c r="I10">
-        <v>0.06832086534394484</v>
+        <v>0.2083918342229165</v>
       </c>
       <c r="J10">
-        <v>0.06832086534394483</v>
+        <v>0.2083918342229164</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.984935333333333</v>
+        <v>5.560959666666666</v>
       </c>
       <c r="N10">
-        <v>20.954806</v>
+        <v>16.682879</v>
       </c>
       <c r="O10">
-        <v>0.1906526598184713</v>
+        <v>0.1423184612405788</v>
       </c>
       <c r="P10">
-        <v>0.1906526598184713</v>
+        <v>0.1423184612405788</v>
       </c>
       <c r="Q10">
-        <v>0.1797666240504444</v>
+        <v>0.5574102068012222</v>
       </c>
       <c r="R10">
-        <v>1.617899616454</v>
+        <v>5.016691861211</v>
       </c>
       <c r="S10">
-        <v>0.0130255546989227</v>
+        <v>0.02965800518170726</v>
       </c>
       <c r="T10">
-        <v>0.0130255546989227</v>
+        <v>0.02965800518170725</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.02573633333333333</v>
+        <v>0.1002363333333333</v>
       </c>
       <c r="H11">
-        <v>0.077209</v>
+        <v>0.300709</v>
       </c>
       <c r="I11">
-        <v>0.06832086534394484</v>
+        <v>0.2083918342229165</v>
       </c>
       <c r="J11">
-        <v>0.06832086534394483</v>
+        <v>0.2083918342229164</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.635186999999999</v>
+        <v>5.635187000000001</v>
       </c>
       <c r="N11">
         <v>16.905561</v>
       </c>
       <c r="O11">
-        <v>0.1538115013030145</v>
+        <v>0.1442181189427041</v>
       </c>
       <c r="P11">
-        <v>0.1538115013030145</v>
+        <v>0.1442181189427041</v>
       </c>
       <c r="Q11">
-        <v>0.1450290510276666</v>
+        <v>0.5648504825276668</v>
       </c>
       <c r="R11">
-        <v>1.305261459249</v>
+        <v>5.083654342749001</v>
       </c>
       <c r="S11">
-        <v>0.01050853486887325</v>
+        <v>0.03005387833464885</v>
       </c>
       <c r="T11">
-        <v>0.01050853486887325</v>
+        <v>0.03005387833464884</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.02573633333333333</v>
+        <v>0.1002363333333333</v>
       </c>
       <c r="H12">
-        <v>0.077209</v>
+        <v>0.300709</v>
       </c>
       <c r="I12">
-        <v>0.06832086534394484</v>
+        <v>0.2083918342229165</v>
       </c>
       <c r="J12">
-        <v>0.06832086534394483</v>
+        <v>0.2083918342229164</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.059787666666668</v>
+        <v>7.323012666666667</v>
       </c>
       <c r="N12">
-        <v>18.179363</v>
+        <v>21.969038</v>
       </c>
       <c r="O12">
-        <v>0.1654009065870381</v>
+        <v>0.1874136762063552</v>
       </c>
       <c r="P12">
-        <v>0.1654009065870381</v>
+        <v>0.1874136762063552</v>
       </c>
       <c r="Q12">
-        <v>0.1559567153185556</v>
+        <v>0.7340319386602222</v>
       </c>
       <c r="R12">
-        <v>1.403610437867</v>
+        <v>6.606287447942001</v>
       </c>
       <c r="S12">
-        <v>0.01130033306669943</v>
+        <v>0.03905547974310212</v>
       </c>
       <c r="T12">
-        <v>0.01130033306669942</v>
+        <v>0.03905547974310211</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.02573633333333333</v>
+        <v>0.1002363333333333</v>
       </c>
       <c r="H13">
-        <v>0.077209</v>
+        <v>0.300709</v>
       </c>
       <c r="I13">
-        <v>0.06832086534394484</v>
+        <v>0.2083918342229165</v>
       </c>
       <c r="J13">
-        <v>0.06832086534394483</v>
+        <v>0.2083918342229164</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>17.95705766666667</v>
+        <v>20.55489766666667</v>
       </c>
       <c r="N13">
-        <v>53.871173</v>
+        <v>61.664693</v>
       </c>
       <c r="O13">
-        <v>0.4901349322914762</v>
+        <v>0.5260497436103619</v>
       </c>
       <c r="P13">
-        <v>0.4901349322914761</v>
+        <v>0.5260497436103618</v>
       </c>
       <c r="Q13">
-        <v>0.4621488217952223</v>
+        <v>2.060347574148556</v>
       </c>
       <c r="R13">
-        <v>4.159339396157</v>
+        <v>18.543128167337</v>
       </c>
       <c r="S13">
-        <v>0.03348644270944947</v>
+        <v>0.1096244709634583</v>
       </c>
       <c r="T13">
-        <v>0.03348644270944946</v>
+        <v>0.1096244709634582</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.1064576666666667</v>
+        <v>0.02668566666666667</v>
       </c>
       <c r="H14">
-        <v>0.319373</v>
+        <v>0.080057</v>
       </c>
       <c r="I14">
-        <v>0.2826074645118017</v>
+        <v>0.05547963337440523</v>
       </c>
       <c r="J14">
-        <v>0.2826074645118016</v>
+        <v>0.05547963337440522</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.984935333333333</v>
+        <v>5.560959666666666</v>
       </c>
       <c r="N14">
-        <v>20.954806</v>
+        <v>16.682879</v>
       </c>
       <c r="O14">
-        <v>0.1906526598184713</v>
+        <v>0.1423184612405788</v>
       </c>
       <c r="P14">
-        <v>0.1906526598184713</v>
+        <v>0.1423184612405788</v>
       </c>
       <c r="Q14">
-        <v>0.7435999174042223</v>
+        <v>0.1483979160114444</v>
       </c>
       <c r="R14">
-        <v>6.692399256638001</v>
+        <v>1.335581244103</v>
       </c>
       <c r="S14">
-        <v>0.05387986479372924</v>
+        <v>0.007895776052036814</v>
       </c>
       <c r="T14">
-        <v>0.05387986479372923</v>
+        <v>0.007895776052036811</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.1064576666666667</v>
+        <v>0.02668566666666667</v>
       </c>
       <c r="H15">
-        <v>0.319373</v>
+        <v>0.080057</v>
       </c>
       <c r="I15">
-        <v>0.2826074645118017</v>
+        <v>0.05547963337440523</v>
       </c>
       <c r="J15">
-        <v>0.2826074645118016</v>
+        <v>0.05547963337440522</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1361,28 +1361,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.635186999999999</v>
+        <v>5.635187000000001</v>
       </c>
       <c r="N15">
         <v>16.905561</v>
       </c>
       <c r="O15">
-        <v>0.1538115013030145</v>
+        <v>0.1442181189427041</v>
       </c>
       <c r="P15">
-        <v>0.1538115013030145</v>
+        <v>0.1442181189427041</v>
       </c>
       <c r="Q15">
-        <v>0.5999088592503333</v>
+        <v>0.1503787218863334</v>
       </c>
       <c r="R15">
-        <v>5.399179733253</v>
+        <v>1.353408496977</v>
       </c>
       <c r="S15">
-        <v>0.04346827839599861</v>
+        <v>0.008001168364887592</v>
       </c>
       <c r="T15">
-        <v>0.0434682783959986</v>
+        <v>0.00800116836488759</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.1064576666666667</v>
+        <v>0.02668566666666667</v>
       </c>
       <c r="H16">
-        <v>0.319373</v>
+        <v>0.080057</v>
       </c>
       <c r="I16">
-        <v>0.2826074645118017</v>
+        <v>0.05547963337440523</v>
       </c>
       <c r="J16">
-        <v>0.2826074645118016</v>
+        <v>0.05547963337440522</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>6.059787666666668</v>
+        <v>7.323012666666667</v>
       </c>
       <c r="N16">
-        <v>18.179363</v>
+        <v>21.969038</v>
       </c>
       <c r="O16">
-        <v>0.1654009065870381</v>
+        <v>0.1874136762063552</v>
       </c>
       <c r="P16">
-        <v>0.1654009065870381</v>
+        <v>0.1874136762063552</v>
       </c>
       <c r="Q16">
-        <v>0.6451108554887779</v>
+        <v>0.1954194750184444</v>
       </c>
       <c r="R16">
-        <v>5.805997699399001</v>
+        <v>1.758775275166</v>
       </c>
       <c r="S16">
-        <v>0.04674353083851619</v>
+        <v>0.01039764204527808</v>
       </c>
       <c r="T16">
-        <v>0.04674353083851618</v>
+        <v>0.01039764204527808</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.1064576666666667</v>
+        <v>0.02668566666666667</v>
       </c>
       <c r="H17">
-        <v>0.319373</v>
+        <v>0.080057</v>
       </c>
       <c r="I17">
-        <v>0.2826074645118017</v>
+        <v>0.05547963337440523</v>
       </c>
       <c r="J17">
-        <v>0.2826074645118016</v>
+        <v>0.05547963337440522</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>17.95705766666667</v>
+        <v>20.55489766666667</v>
       </c>
       <c r="N17">
-        <v>53.871173</v>
+        <v>61.664693</v>
       </c>
       <c r="O17">
-        <v>0.4901349322914762</v>
+        <v>0.5260497436103619</v>
       </c>
       <c r="P17">
-        <v>0.4901349322914761</v>
+        <v>0.5260497436103618</v>
       </c>
       <c r="Q17">
-        <v>1.911666459392111</v>
+        <v>0.5485211475001111</v>
       </c>
       <c r="R17">
-        <v>17.204998134529</v>
+        <v>4.936690327501</v>
       </c>
       <c r="S17">
-        <v>0.1385157904835577</v>
+        <v>0.02918504691220275</v>
       </c>
       <c r="T17">
-        <v>0.1385157904835576</v>
+        <v>0.02918504691220274</v>
       </c>
     </row>
   </sheetData>
